--- a/data/ProjectList.xlsx
+++ b/data/ProjectList.xlsx
@@ -189,8 +189,8 @@
   </sheetPr>
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P2" activeCellId="1" sqref="P1 P2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.39453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -271,10 +271,10 @@
         <v>450000</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>45703</v>
+        <v>45731</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>45736</v>
+        <v>45950</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>18</v>

--- a/data/ProjectList.xlsx
+++ b/data/ProjectList.xlsx
@@ -189,7 +189,7 @@
         <v>17</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E2" t="n" s="0">
         <v>350000.0</v>

--- a/data/ProjectList.xlsx
+++ b/data/ProjectList.xlsx
@@ -77,7 +77,7 @@
     <t>T2109876H,S6543210I</t>
   </si>
   <si>
-    <t/>
+    <t>S1234567A</t>
   </si>
 </sst>
 </file>
